--- a/results/analysis_summary-2017.12.24.xlsx
+++ b/results/analysis_summary-2017.12.24.xlsx
@@ -2010,8 +2010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG71"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3139,12 +3139,16 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="B52" s="15">
+        <v>0.41562797337137403</v>
+      </c>
+      <c r="C52" s="15">
+        <v>0.42473550857912401</v>
+      </c>
       <c r="D52" s="1" t="s">
         <v>21</v>
       </c>
@@ -3471,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4450,12 +4454,16 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="B52" s="15">
+        <v>0.45097083263908699</v>
+      </c>
+      <c r="C52" s="15">
+        <v>0.40792274254893002</v>
+      </c>
       <c r="D52" s="1" t="s">
         <v>21</v>
       </c>
@@ -4783,7 +4791,7 @@
   <dimension ref="A1:AG83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6433,14 +6441,22 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="17" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+      <c r="B64" s="15">
+        <v>0.41562797337137403</v>
+      </c>
+      <c r="C64" s="15">
+        <v>0.42473550857912401</v>
+      </c>
+      <c r="D64" s="15">
+        <v>0.45097083263908699</v>
+      </c>
+      <c r="E64" s="15">
+        <v>0.40792274254893002</v>
+      </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
